--- a/falskUnittest/data/users.xlsx
+++ b/falskUnittest/data/users.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18990" windowHeight="8955"/>
+    <workbookView windowWidth="18990" windowHeight="8280"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>description</t>
   </si>
   <si>
-    <t>userId</t>
+    <t>code</t>
   </si>
   <si>
     <t>username</t>
@@ -37,30 +37,36 @@
     <t>addr</t>
   </si>
   <si>
+    <t>msg</t>
+  </si>
+  <si>
     <t>正常场景</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>hqq</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>hqq</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
     <t>13132443245</t>
   </si>
   <si>
     <t>广东省深圳市</t>
   </si>
   <si>
+    <t>恭喜，注册成功！</t>
+  </si>
+  <si>
     <t>用户名已存在</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>huang</t>
   </si>
   <si>
@@ -73,19 +79,25 @@
     <t>输入的性别有误</t>
   </si>
   <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>ww</t>
+  </si>
+  <si>
+    <t>aA123456</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
-    <t>ww</t>
-  </si>
-  <si>
-    <t>aA123456</t>
-  </si>
-  <si>
     <t>13132445566</t>
   </si>
   <si>
     <t>北京市</t>
+  </si>
+  <si>
+    <t>输入的性别只能是 0(男) 或 1(女)！！！</t>
   </si>
 </sst>
 </file>
@@ -93,12 +105,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,9 +119,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -123,36 +149,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -161,14 +188,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,11 +232,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -229,8 +247,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,21 +257,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,13 +272,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -285,37 +398,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -327,25 +410,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -357,97 +452,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,6 +463,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -476,17 +492,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,7 +520,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,8 +528,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,73 +549,65 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -615,94 +617,97 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1031,7 +1036,7 @@
   <dimension ref="A1:J94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="$A5:$XFD9"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.85"/>
@@ -1040,7 +1045,7 @@
     <col min="3" max="3" width="13.4159292035398" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1062,82 +1067,91 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
